--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>2.058473333929637e-98</v>
+        <v>1.027440329359062e-105</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.012875688407752e-98</v>
+        <v>2.153204982341393e-105</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>5.706075119088113e-99</v>
+        <v>2.897664463508183e-105</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>4.990321835930242e-99</v>
+        <v>2.415751305290274e-105</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>4.196078136500484e-99</v>
+        <v>2.228407506132248e-105</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>5.433594738510464e-99</v>
+        <v>2.235291974789762e-105</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>5.644865906047267e-99</v>
+        <v>1.528208744545871e-105</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.207295495879025e-98</v>
+        <v>1.339524063267922e-105</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>1.516550755063127e-98</v>
+        <v>9.511266455117954e-106</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>1.027185872153558e-98</v>
+        <v>8.995028866368127e-106</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>5.571427281682887e-99</v>
+        <v>5.307310643724968e-106</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>1.931688375781105e-99</v>
+        <v>3.549990713247573e-106</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>1.336188027277958e-99</v>
+        <v>9.097004624561562e-112</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>1.543446906307132e-99</v>
+        <v>2.272162800044441e-112</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>6.130068298336459e-100</v>
+        <v>2.187470424603884e-112</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>3.867340427944321e-100</v>
+        <v>1.688053474151847e-112</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>1.748705825785729e-100</v>
+        <v>1.633757541223498e-112</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>5.534403641785279e-101</v>
+        <v>1.992089536034383e-112</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>3.852805198171369e-101</v>
+        <v>1.54718155219706e-112</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.370590656252571e-101</v>
+        <v>1.694726764115488e-112</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3.15177816409323e-101</v>
+        <v>3.070247909086565e-112</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>3.114478379824535e-101</v>
+        <v>3.247961661000242e-112</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>2.450375225262736e-101</v>
+        <v>3.859089346898064e-112</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>3.958628501758311e-101</v>
+        <v>3.762516274994485e-112</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>4.66786425059542e-101</v>
+        <v>2.926999955329249e-112</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>7.067108416935802e-101</v>
+        <v>3.177253682017261e-112</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>1.06882852774102e-100</v>
+        <v>2.582803097843714e-112</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>6.447423953866545e-101</v>
+        <v>2.591133270402311e-112</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>2.15370574468844e-101</v>
+        <v>2.373867543890622e-112</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>6.849208094176026e-102</v>
+        <v>2.122375775563337e-112</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>2.079886129724776e-102</v>
+        <v>1.790534092045108e-112</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>1.331224214447019e-102</v>
+        <v>1.474649375127514e-112</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>5.648549177754112e-103</v>
+        <v>1.573452530630696e-112</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>3.10586813485726e-103</v>
+        <v>1.2302888488805e-112</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.541858809839637e-103</v>
+        <v>1.075695809001509e-112</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>1.383466908875815e-103</v>
+        <v>6.171935100196941e-113</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>1.810222408894836e-103</v>
+        <v>5.656130981855347e-113</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>4.507687661910765e-104</v>
+        <v>4.165071576266144e-113</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.227818446887587e-104</v>
+        <v>4.799456565151627e-113</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>6.533956320029266e-105</v>
+        <v>6.800935399362015e-113</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>2.213703144585788e-105</v>
+        <v>6.183586248807073e-113</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>1.056182055931047e-105</v>
+        <v>5.175569715407213e-113</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>7.094298876553167e-106</v>
+        <v>3.52639097121813e-113</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>1.27268060674687e-105</v>
+        <v>2.815319163429481e-113</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>1.191377512539107e-105</v>
+        <v>2.035490271731101e-113</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>8.006694786839131e-106</v>
+        <v>4.291414133531156e-114</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>6.490333864932996e-106</v>
+        <v>1.787222814692783e-114</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>4.483615076105997e-106</v>
+        <v>8.537293325890454e-115</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>2.403904261930287e-106</v>
+        <v>6.859909414486048e-115</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>1.112905468434017e-106</v>
+        <v>5.311454621776328e-115</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>6.164342063854263e-107</v>
+        <v>6.337610205255418e-115</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>5.218374583255856e-107</v>
+        <v>6.064795171342736e-115</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>4.515064564433432e-107</v>
+        <v>1.243878155351766e-114</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>3.463140088008496e-107</v>
+        <v>1.497389120804823e-114</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>2.147009789516642e-107</v>
+        <v>9.346891591266807e-115</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>9.261199843027256e-108</v>
+        <v>4.743333440723804e-115</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>5.549694966555115e-108</v>
+        <v>1.537038712602262e-115</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>2.828424632833316e-108</v>
+        <v>1.04518188031465e-115</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>2.635664130379634e-108</v>
+        <v>1.188614974832123e-115</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>2.098841928181004e-108</v>
+        <v>4.637319804894549e-116</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>1.718266342563512e-108</v>
+        <v>2.859118318614914e-116</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.575216783269845e-108</v>
+        <v>1.240482058135795e-116</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>1.39455887319286e-108</v>
+        <v>3.60614810792561e-117</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>1.242935771371371e-108</v>
+        <v>2.469736737826641e-117</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>9.387931577050565e-109</v>
+        <v>2.109255277972116e-117</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>7.97216401698087e-109</v>
+        <v>1.892329429326166e-117</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>6.488620822986417e-109</v>
+        <v>1.791413077880054e-117</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>5.149507064783394e-109</v>
+        <v>1.361494668346143e-117</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>4.433977226623155e-109</v>
+        <v>2.098783705105284e-117</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>3.735923243053834e-109</v>
+        <v>2.370688192520694e-117</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>3.363532839129173e-109</v>
+        <v>3.315487760642032e-117</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>2.786141021427013e-109</v>
+        <v>4.600533580018224e-117</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>2.478918160574101e-109</v>
+        <v>2.555232621897032e-117</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>1.238348597339226e-109</v>
+        <v>7.862394098821634e-118</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>8.810290513805517e-110</v>
+        <v>2.300342424436165e-118</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>5.899582274130429e-110</v>
+        <v>6.419051589459534e-119</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>2.801493042044017e-110</v>
+        <v>3.79014123649188e-119</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>1.96429921539223e-110</v>
+        <v>1.477202718853096e-119</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>1.328392518508911e-110</v>
+        <v>7.493679439769759e-120</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>1.095881576923384e-110</v>
+        <v>3.562130341841539e-120</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09214368637296e-110</v>
+        <v>3.071656643453443e-120</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>9.809758563138226e-111</v>
+        <v>3.699130857394993e-120</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>7.444381251298114e-111</v>
+        <v>7.792426745067631e-121</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>6.454799623403969e-111</v>
+        <v>1.953029592622575e-121</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>5.833801812433047e-111</v>
+        <v>9.583133931185563e-122</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>5.710354580719365e-111</v>
+        <v>2.748236605170039e-122</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>5.335443069561461e-111</v>
+        <v>1.110895805963282e-122</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>4.88241545168177e-111</v>
+        <v>6.320795732781973e-123</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>4.188744949090627e-111</v>
+        <v>1.086212968483437e-122</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>3.57474674688566e-111</v>
+        <v>9.860787189702291e-123</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>2.628867083757061e-111</v>
+        <v>6.040865078234736e-123</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.772680205487921e-111</v>
+        <v>4.698583024164867e-123</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>6.753504588622684e-112</v>
+        <v>3.10980776299754e-123</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>4.441505073684584e-112</v>
+        <v>1.53533260500858e-123</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>2.830746086522073e-112</v>
+        <v>6.552818976876432e-124</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>1.352551285943716e-112</v>
+        <v>3.337521660235569e-124</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>9.549596270450102e-113</v>
+        <v>2.775855895456331e-124</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.811775151061696e-113</v>
+        <v>2.340552535972382e-124</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>6.860489132495429e-113</v>
+        <v>1.725294271012066e-124</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>5.877349623005349e-113</v>
+        <v>9.858336217272635e-125</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>5.535417085799115e-113</v>
+        <v>3.597991086067221e-125</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>5.442743012759732e-113</v>
+        <v>1.883940518937363e-125</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>5.348522297273132e-113</v>
+        <v>7.894005206590753e-126</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>4.732569283277773e-113</v>
+        <v>6.769158100996953e-126</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>4.213194093020652e-113</v>
+        <v>4.952168280180899e-126</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>3.813953713338912e-113</v>
+        <v>3.736651767650207e-126</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>3.119058194250129e-113</v>
+        <v>3.25406412182745e-126</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>2.981102461376184e-113</v>
+        <v>2.785890429327715e-126</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>2.895668970449339e-113</v>
+        <v>2.348137622748845e-126</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>2.477575435828724e-113</v>
+        <v>1.634636740333748e-126</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.710981319813316e-113</v>
+        <v>1.3481643736588e-126</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>1.162648937323089e-113</v>
+        <v>1.039756313781311e-126</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>8.738690954321448e-114</v>
+        <v>7.909160053030431e-127</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>7.944630344644149e-114</v>
+        <v>6.649358637332818e-127</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>8.13004585452191e-114</v>
+        <v>5.459350407794797e-127</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.097386408478384e-113</v>
+        <v>4.82746192019107e-127</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.176118021606319e-113</v>
+        <v>3.908231728189801e-127</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>1.073480741887095e-113</v>
+        <v>3.424875495244567e-127</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>9.344177798215822e-114</v>
+        <v>1.573624442338662e-127</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>8.613291117455073e-114</v>
+        <v>1.070860840700738e-127</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>8.26758364781544e-114</v>
+        <v>6.902198560534122e-128</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>5.92450457125771e-114</v>
+        <v>3.017364034112728e-128</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>4.844559527221991e-114</v>
+        <v>2.023794786462224e-128</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>1.793891265044929e-114</v>
+        <v>1.314642674174627e-128</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>4.390403294288885e-115</v>
+        <v>1.058752507310753e-128</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>1.472786241014284e-115</v>
+        <v>1.054091161266e-128</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>6.330034366831135e-116</v>
+        <v>9.315230992387641e-129</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>5.564165620121428e-116</v>
+        <v>6.782939165355977e-129</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>5.211215788565829e-116</v>
+        <v>5.735260276252473e-129</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>5.581454172348345e-116</v>
+        <v>5.08676688567382e-129</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>4.576538061300444e-116</v>
+        <v>4.869625430823746e-129</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>3.704384667423573e-116</v>
+        <v>4.433632550674666e-129</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>2.793507798658439e-116</v>
+        <v>3.963672690912078e-129</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>1.97255146282429e-116</v>
+        <v>3.309505860281676e-129</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>1.94761463119126e-116</v>
+        <v>2.759296456864738e-129</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.37733019587243e-116</v>
+        <v>1.943815294350836e-129</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>9.100301156113649e-117</v>
+        <v>1.258830231865047e-129</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>6.442734338989896e-117</v>
+        <v>4.412509871240784e-130</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>5.524212077047844e-117</v>
+        <v>2.783302937062422e-130</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>4.333202760288029e-117</v>
+        <v>1.7079010979509e-130</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>3.875472693256244e-117</v>
+        <v>7.528777417960161e-131</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>3.189311896786916e-117</v>
+        <v>5.065878503078522e-131</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>2.685274189588515e-117</v>
+        <v>4.017704716753488e-131</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.463286827235612e-117</v>
+        <v>3.440553984173757e-131</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>2.224272264847239e-117</v>
+        <v>2.895870424343257e-131</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>1.942546980025786e-117</v>
+        <v>2.702613703502903e-131</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>1.771941763516261e-117</v>
+        <v>2.6476822481378e-131</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>1.549310578076013e-117</v>
+        <v>2.595809596249141e-131</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>1.47515277206537e-117</v>
+        <v>2.255880875673371e-131</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>1.189357042524736e-117</v>
+        <v>1.975583971800019e-131</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>8.24632140434735e-118</v>
+        <v>1.758361127583858e-131</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>8.025574319260706e-118</v>
+        <v>1.41573295202116e-131</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>5.845745453847215e-118</v>
+        <v>1.339042043073009e-131</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>5.252340519598534e-118</v>
+        <v>1.29302718834488e-131</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>5.038494144621149e-118</v>
+        <v>1.078326965518498e-131</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>5.410949093240409e-118</v>
+        <v>7.146525122753342e-132</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>4.383313027117988e-118</v>
+        <v>4.660025542966523e-132</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>3.755241719509807e-118</v>
+        <v>3.367200019861132e-132</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>3.096885779699326e-118</v>
+        <v>3.025374195557087e-132</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>2.625637928894813e-118</v>
+        <v>2.998143494648061e-132</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>2.263035520761606e-118</v>
+        <v>3.880151446351743e-132</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>1.911343502634988e-118</v>
+        <v>4.064040203014498e-132</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.602399602763932e-118</v>
+        <v>3.615481828343554e-132</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>1.499825198309854e-118</v>
+        <v>3.063382840882128e-132</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>5.986311581908773e-119</v>
+        <v>2.776834579450768e-132</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1.909114018981204e-119</v>
+        <v>2.644015370377591e-132</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.029524772746148e-119</v>
+        <v>1.801770697565005e-132</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>1.423230140111002e-119</v>
+        <v>1.445124813639019e-132</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>8.62755967432433e-120</v>
+        <v>4.897343716450513e-133</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>6.324876405415046e-120</v>
+        <v>1.01707593156895e-133</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>4.4667841403933e-120</v>
+        <v>2.885570739933868e-134</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>3.93457841392498e-120</v>
+        <v>1.05057196520919e-134</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>3.312292704616307e-120</v>
+        <v>8.536769773646772e-135</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>3.662342272093614e-120</v>
+        <v>7.762537550283388e-135</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>2.464329819205414e-120</v>
+        <v>7.840332365555723e-135</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.252975346898592e-120</v>
+        <v>5.926151386865121e-135</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>9.245627017773034e-121</v>
+        <v>4.598046010094252e-135</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.328168246146247e-135</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.254954236490238e-135</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.225339114666807e-135</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.512411370576921e-135</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9.575579290716959e-136</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.492391347994097e-136</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.439847991639519e-136</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.102799944449892e-136</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.60751880452163e-136</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.90399125132664e-136</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.329194789766544e-136</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.05577393134069e-136</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.786189576204148e-136</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.49295947768559e-136</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.30790541043859e-136</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.095283609048512e-136</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.042598255052508e-136</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.093935989131623e-137</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5.371761620906727e-137</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5.21972843436753e-137</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.677572123546325e-137</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.268266052776754e-137</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.126886593056359e-137</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.262723581233335e-137</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.609298227069086e-137</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.157066790239391e-137</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.750636219322282e-137</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.459090115558668e-137</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.237198914655875e-137</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.02611252996446e-137</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>8.461666106597202e-138</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>7.81490825587553e-138</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.988711170998326e-138</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9.122069590598717e-139</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.805074102590284e-139</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.619495680971311e-139</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.995433104726781e-139</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.878460983261587e-139</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.968109134318299e-139</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.687908038086187e-139</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.304229316729289e-139</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.319877498533307e-139</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>8.155082929337634e-140</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.783137686909553e-140</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.703784533774011e-140</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>1.027440329359062e-105</v>
+        <v>2.058473333929637e-98</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>2.153204982341393e-105</v>
+        <v>1.012875688407752e-98</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>2.897664463508183e-105</v>
+        <v>5.706075119088113e-99</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>2.415751305290274e-105</v>
+        <v>4.990321835930242e-99</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>2.228407506132248e-105</v>
+        <v>4.196078136500484e-99</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>2.235291974789762e-105</v>
+        <v>5.433594738510464e-99</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>1.528208744545871e-105</v>
+        <v>5.644865906047267e-99</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>1.339524063267922e-105</v>
+        <v>1.207295495879025e-98</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>9.511266455117954e-106</v>
+        <v>1.516550755063127e-98</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>8.995028866368127e-106</v>
+        <v>1.027185872153558e-98</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>5.307310643724968e-106</v>
+        <v>5.571427281682887e-99</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>3.549990713247573e-106</v>
+        <v>1.931688375781105e-99</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>9.097004624561562e-112</v>
+        <v>1.336188027277958e-99</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>2.272162800044441e-112</v>
+        <v>1.543446906307132e-99</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>2.187470424603884e-112</v>
+        <v>6.130068298336459e-100</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.688053474151847e-112</v>
+        <v>3.867340427944321e-100</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.633757541223498e-112</v>
+        <v>1.748705825785729e-100</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992089536034383e-112</v>
+        <v>5.534403641785279e-101</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.54718155219706e-112</v>
+        <v>3.852805198171369e-101</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>1.694726764115488e-112</v>
+        <v>3.370590656252571e-101</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>3.070247909086565e-112</v>
+        <v>3.15177816409323e-101</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>3.247961661000242e-112</v>
+        <v>3.114478379824535e-101</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>3.859089346898064e-112</v>
+        <v>2.450375225262736e-101</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>3.762516274994485e-112</v>
+        <v>3.958628501758311e-101</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>2.926999955329249e-112</v>
+        <v>4.66786425059542e-101</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>3.177253682017261e-112</v>
+        <v>7.067108416935802e-101</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>2.582803097843714e-112</v>
+        <v>1.06882852774102e-100</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>2.591133270402311e-112</v>
+        <v>6.447423953866545e-101</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>2.373867543890622e-112</v>
+        <v>2.15370574468844e-101</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>2.122375775563337e-112</v>
+        <v>6.849208094176026e-102</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.790534092045108e-112</v>
+        <v>2.079886129724776e-102</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>1.474649375127514e-112</v>
+        <v>1.331224214447019e-102</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>1.573452530630696e-112</v>
+        <v>5.648549177754112e-103</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>1.2302888488805e-112</v>
+        <v>3.10586813485726e-103</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>1.075695809001509e-112</v>
+        <v>1.541858809839637e-103</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>6.171935100196941e-113</v>
+        <v>1.383466908875815e-103</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>5.656130981855347e-113</v>
+        <v>1.810222408894836e-103</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>4.165071576266144e-113</v>
+        <v>4.507687661910765e-104</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>4.799456565151627e-113</v>
+        <v>1.227818446887587e-104</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>6.800935399362015e-113</v>
+        <v>6.533956320029266e-105</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>6.183586248807073e-113</v>
+        <v>2.213703144585788e-105</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>5.175569715407213e-113</v>
+        <v>1.056182055931047e-105</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>3.52639097121813e-113</v>
+        <v>7.094298876553167e-106</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>2.815319163429481e-113</v>
+        <v>1.27268060674687e-105</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>2.035490271731101e-113</v>
+        <v>1.191377512539107e-105</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>4.291414133531156e-114</v>
+        <v>8.006694786839131e-106</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.787222814692783e-114</v>
+        <v>6.490333864932996e-106</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>8.537293325890454e-115</v>
+        <v>4.483615076105997e-106</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>6.859909414486048e-115</v>
+        <v>2.403904261930287e-106</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>5.311454621776328e-115</v>
+        <v>1.112905468434017e-106</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>6.337610205255418e-115</v>
+        <v>6.164342063854263e-107</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>6.064795171342736e-115</v>
+        <v>5.218374583255856e-107</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>1.243878155351766e-114</v>
+        <v>4.515064564433432e-107</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>1.497389120804823e-114</v>
+        <v>3.463140088008496e-107</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>9.346891591266807e-115</v>
+        <v>2.147009789516642e-107</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>4.743333440723804e-115</v>
+        <v>9.261199843027256e-108</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>1.537038712602262e-115</v>
+        <v>5.549694966555115e-108</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>1.04518188031465e-115</v>
+        <v>2.828424632833316e-108</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>1.188614974832123e-115</v>
+        <v>2.635664130379634e-108</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>4.637319804894549e-116</v>
+        <v>2.098841928181004e-108</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>2.859118318614914e-116</v>
+        <v>1.718266342563512e-108</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.240482058135795e-116</v>
+        <v>1.575216783269845e-108</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>3.60614810792561e-117</v>
+        <v>1.39455887319286e-108</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>2.469736737826641e-117</v>
+        <v>1.242935771371371e-108</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>2.109255277972116e-117</v>
+        <v>9.387931577050565e-109</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>1.892329429326166e-117</v>
+        <v>7.97216401698087e-109</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.791413077880054e-117</v>
+        <v>6.488620822986417e-109</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.361494668346143e-117</v>
+        <v>5.149507064783394e-109</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>2.098783705105284e-117</v>
+        <v>4.433977226623155e-109</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>2.370688192520694e-117</v>
+        <v>3.735923243053834e-109</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>3.315487760642032e-117</v>
+        <v>3.363532839129173e-109</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>4.600533580018224e-117</v>
+        <v>2.786141021427013e-109</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>2.555232621897032e-117</v>
+        <v>2.478918160574101e-109</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>7.862394098821634e-118</v>
+        <v>1.238348597339226e-109</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>2.300342424436165e-118</v>
+        <v>8.810290513805517e-110</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>6.419051589459534e-119</v>
+        <v>5.899582274130429e-110</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>3.79014123649188e-119</v>
+        <v>2.801493042044017e-110</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>1.477202718853096e-119</v>
+        <v>1.96429921539223e-110</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>7.493679439769759e-120</v>
+        <v>1.328392518508911e-110</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>3.562130341841539e-120</v>
+        <v>1.095881576923384e-110</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>3.071656643453443e-120</v>
+        <v>1.09214368637296e-110</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>3.699130857394993e-120</v>
+        <v>9.809758563138226e-111</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>7.792426745067631e-121</v>
+        <v>7.444381251298114e-111</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>1.953029592622575e-121</v>
+        <v>6.454799623403969e-111</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>9.583133931185563e-122</v>
+        <v>5.833801812433047e-111</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>2.748236605170039e-122</v>
+        <v>5.710354580719365e-111</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>1.110895805963282e-122</v>
+        <v>5.335443069561461e-111</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>6.320795732781973e-123</v>
+        <v>4.88241545168177e-111</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>1.086212968483437e-122</v>
+        <v>4.188744949090627e-111</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>9.860787189702291e-123</v>
+        <v>3.57474674688566e-111</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>6.040865078234736e-123</v>
+        <v>2.628867083757061e-111</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>4.698583024164867e-123</v>
+        <v>1.772680205487921e-111</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>3.10980776299754e-123</v>
+        <v>6.753504588622684e-112</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>1.53533260500858e-123</v>
+        <v>4.441505073684584e-112</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>6.552818976876432e-124</v>
+        <v>2.830746086522073e-112</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>3.337521660235569e-124</v>
+        <v>1.352551285943716e-112</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>2.775855895456331e-124</v>
+        <v>9.549596270450102e-113</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>2.340552535972382e-124</v>
+        <v>7.811775151061696e-113</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>1.725294271012066e-124</v>
+        <v>6.860489132495429e-113</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>9.858336217272635e-125</v>
+        <v>5.877349623005349e-113</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>3.597991086067221e-125</v>
+        <v>5.535417085799115e-113</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>1.883940518937363e-125</v>
+        <v>5.442743012759732e-113</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>7.894005206590753e-126</v>
+        <v>5.348522297273132e-113</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>6.769158100996953e-126</v>
+        <v>4.732569283277773e-113</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>4.952168280180899e-126</v>
+        <v>4.213194093020652e-113</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>3.736651767650207e-126</v>
+        <v>3.813953713338912e-113</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>3.25406412182745e-126</v>
+        <v>3.119058194250129e-113</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>2.785890429327715e-126</v>
+        <v>2.981102461376184e-113</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>2.348137622748845e-126</v>
+        <v>2.895668970449339e-113</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>1.634636740333748e-126</v>
+        <v>2.477575435828724e-113</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3481643736588e-126</v>
+        <v>1.710981319813316e-113</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>1.039756313781311e-126</v>
+        <v>1.162648937323089e-113</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>7.909160053030431e-127</v>
+        <v>8.738690954321448e-114</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>6.649358637332818e-127</v>
+        <v>7.944630344644149e-114</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>5.459350407794797e-127</v>
+        <v>8.13004585452191e-114</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>4.82746192019107e-127</v>
+        <v>1.097386408478384e-113</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>3.908231728189801e-127</v>
+        <v>1.176118021606319e-113</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>3.424875495244567e-127</v>
+        <v>1.073480741887095e-113</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>1.573624442338662e-127</v>
+        <v>9.344177798215822e-114</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>1.070860840700738e-127</v>
+        <v>8.613291117455073e-114</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>6.902198560534122e-128</v>
+        <v>8.26758364781544e-114</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>3.017364034112728e-128</v>
+        <v>5.92450457125771e-114</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>2.023794786462224e-128</v>
+        <v>4.844559527221991e-114</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>1.314642674174627e-128</v>
+        <v>1.793891265044929e-114</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>1.058752507310753e-128</v>
+        <v>4.390403294288885e-115</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.054091161266e-128</v>
+        <v>1.472786241014284e-115</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>9.315230992387641e-129</v>
+        <v>6.330034366831135e-116</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>6.782939165355977e-129</v>
+        <v>5.564165620121428e-116</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>5.735260276252473e-129</v>
+        <v>5.211215788565829e-116</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>5.08676688567382e-129</v>
+        <v>5.581454172348345e-116</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>4.869625430823746e-129</v>
+        <v>4.576538061300444e-116</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>4.433632550674666e-129</v>
+        <v>3.704384667423573e-116</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>3.963672690912078e-129</v>
+        <v>2.793507798658439e-116</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>3.309505860281676e-129</v>
+        <v>1.97255146282429e-116</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>2.759296456864738e-129</v>
+        <v>1.94761463119126e-116</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.943815294350836e-129</v>
+        <v>1.37733019587243e-116</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>1.258830231865047e-129</v>
+        <v>9.100301156113649e-117</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>4.412509871240784e-130</v>
+        <v>6.442734338989896e-117</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>2.783302937062422e-130</v>
+        <v>5.524212077047844e-117</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7079010979509e-130</v>
+        <v>4.333202760288029e-117</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>7.528777417960161e-131</v>
+        <v>3.875472693256244e-117</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>5.065878503078522e-131</v>
+        <v>3.189311896786916e-117</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>4.017704716753488e-131</v>
+        <v>2.685274189588515e-117</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>3.440553984173757e-131</v>
+        <v>2.463286827235612e-117</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>2.895870424343257e-131</v>
+        <v>2.224272264847239e-117</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>2.702613703502903e-131</v>
+        <v>1.942546980025786e-117</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>2.6476822481378e-131</v>
+        <v>1.771941763516261e-117</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>2.595809596249141e-131</v>
+        <v>1.549310578076013e-117</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>2.255880875673371e-131</v>
+        <v>1.47515277206537e-117</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>1.975583971800019e-131</v>
+        <v>1.189357042524736e-117</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>1.758361127583858e-131</v>
+        <v>8.24632140434735e-118</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.41573295202116e-131</v>
+        <v>8.025574319260706e-118</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.339042043073009e-131</v>
+        <v>5.845745453847215e-118</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.29302718834488e-131</v>
+        <v>5.252340519598534e-118</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.078326965518498e-131</v>
+        <v>5.038494144621149e-118</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>7.146525122753342e-132</v>
+        <v>5.410949093240409e-118</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>4.660025542966523e-132</v>
+        <v>4.383313027117988e-118</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>3.367200019861132e-132</v>
+        <v>3.755241719509807e-118</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>3.025374195557087e-132</v>
+        <v>3.096885779699326e-118</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>2.998143494648061e-132</v>
+        <v>2.625637928894813e-118</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>3.880151446351743e-132</v>
+        <v>2.263035520761606e-118</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>4.064040203014498e-132</v>
+        <v>1.911343502634988e-118</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>3.615481828343554e-132</v>
+        <v>1.602399602763932e-118</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>3.063382840882128e-132</v>
+        <v>1.499825198309854e-118</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>2.776834579450768e-132</v>
+        <v>5.986311581908773e-119</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>2.644015370377591e-132</v>
+        <v>1.909114018981204e-119</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>1.801770697565005e-132</v>
+        <v>1.029524772746148e-119</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>1.445124813639019e-132</v>
+        <v>1.423230140111002e-119</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>4.897343716450513e-133</v>
+        <v>8.62755967432433e-120</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>1.01707593156895e-133</v>
+        <v>6.324876405415046e-120</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>2.885570739933868e-134</v>
+        <v>4.4667841403933e-120</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.05057196520919e-134</v>
+        <v>3.93457841392498e-120</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>8.536769773646772e-135</v>
+        <v>3.312292704616307e-120</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>7.762537550283388e-135</v>
+        <v>3.662342272093614e-120</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>7.840332365555723e-135</v>
+        <v>2.464329819205414e-120</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>5.926151386865121e-135</v>
+        <v>1.252975346898592e-120</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>4.598046010094252e-135</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>3.328168246146247e-135</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.254954236490238e-135</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2.225339114666807e-135</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.512411370576921e-135</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>9.575579290716959e-136</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.492391347994097e-136</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.439847991639519e-136</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.102799944449892e-136</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.60751880452163e-136</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.90399125132664e-136</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.329194789766544e-136</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.05577393134069e-136</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.786189576204148e-136</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.49295947768559e-136</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.30790541043859e-136</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.095283609048512e-136</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.042598255052508e-136</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>8.093935989131623e-137</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>5.371761620906727e-137</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>5.21972843436753e-137</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.677572123546325e-137</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.268266052776754e-137</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.126886593056359e-137</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.262723581233335e-137</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.609298227069086e-137</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.157066790239391e-137</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.750636219322282e-137</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.459090115558668e-137</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.237198914655875e-137</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.02611252996446e-137</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>8.461666106597202e-138</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>7.81490825587553e-138</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2.988711170998326e-138</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>9.122069590598717e-139</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4.805074102590284e-139</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>6.619495680971311e-139</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.995433104726781e-139</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.878460983261587e-139</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.968109134318299e-139</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.687908038086187e-139</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.304229316729289e-139</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.319877498533307e-139</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>8.155082929337634e-140</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.783137686909553e-140</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.703784533774011e-140</v>
+        <v>9.245627017773034e-121</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>2.058473333929637e-98</v>
+        <v>1.60807194962374e-87</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.012875688407752e-98</v>
+        <v>2.099180003038795e-87</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>5.706075119088113e-99</v>
+        <v>2.633173321905345e-87</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>4.990321835930242e-99</v>
+        <v>2.096918348978631e-87</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>4.196078136500484e-99</v>
+        <v>2.289913509915462e-87</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>5.433594738510464e-99</v>
+        <v>2.072395427198376e-87</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>5.644865906047267e-99</v>
+        <v>1.508027809460004e-87</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.207295495879025e-98</v>
+        <v>1.309794413361054e-87</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>1.516550755063127e-98</v>
+        <v>8.876989501094635e-88</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>1.027185872153558e-98</v>
+        <v>8.417256847491592e-88</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>5.571427281682887e-99</v>
+        <v>7.100637601184094e-88</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>1.931688375781105e-99</v>
+        <v>3.409944220379756e-88</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>1.336188027277958e-99</v>
+        <v>8.367020995970538e-94</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>1.543446906307132e-99</v>
+        <v>2.068964624847598e-94</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>6.130068298336459e-100</v>
+        <v>2.100776144818308e-94</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>3.867340427944321e-100</v>
+        <v>1.582425686578785e-94</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>1.748705825785729e-100</v>
+        <v>1.547327503470972e-94</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>5.534403641785279e-101</v>
+        <v>1.857412059420567e-94</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>3.852805198171369e-101</v>
+        <v>1.449634161645218e-94</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.370590656252571e-101</v>
+        <v>1.627563162549197e-94</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>3.15177816409323e-101</v>
+        <v>2.790022535585457e-94</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>3.114478379824535e-101</v>
+        <v>3.074103961656252e-94</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>2.450375225262736e-101</v>
+        <v>3.842674239850726e-94</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>3.958628501758311e-101</v>
+        <v>3.630132903778285e-94</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>4.66786425059542e-101</v>
+        <v>3.033523210125393e-94</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>7.067108416935802e-101</v>
+        <v>2.979113679733541e-94</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>1.06882852774102e-100</v>
+        <v>2.595385783785547e-94</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>6.447423953866545e-101</v>
+        <v>2.476465315028988e-94</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>2.15370574468844e-101</v>
+        <v>2.271470467839616e-94</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>6.849208094176026e-102</v>
+        <v>2.066446727625575e-94</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>2.079886129724776e-102</v>
+        <v>1.72745175414472e-94</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>1.331224214447019e-102</v>
+        <v>1.448735503411945e-94</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>5.648549177754112e-103</v>
+        <v>1.465864360878963e-94</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>3.10586813485726e-103</v>
+        <v>1.164990707762253e-94</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.541858809839637e-103</v>
+        <v>1.005419742326162e-94</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>1.383466908875815e-103</v>
+        <v>5.974592545053678e-95</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.810222408894836e-103</v>
+        <v>5.327151487422477e-95</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>4.507687661910765e-104</v>
+        <v>4.500349391254824e-95</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>1.227818446887587e-104</v>
+        <v>4.537662265956327e-95</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>6.533956320029266e-105</v>
+        <v>6.372400320087003e-95</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>2.213703144585788e-105</v>
+        <v>5.839113946914043e-95</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.056182055931047e-105</v>
+        <v>4.814420564363848e-95</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>7.094298876553167e-106</v>
+        <v>3.295082741967581e-95</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>1.27268060674687e-105</v>
+        <v>2.61648075027374e-95</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>1.191377512539107e-105</v>
+        <v>1.90396904088814e-95</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>8.006694786839131e-106</v>
+        <v>3.978677530510136e-96</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>6.490333864932996e-106</v>
+        <v>1.670810993925647e-96</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>4.483615076105997e-106</v>
+        <v>7.943692869884578e-97</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>2.403904261930287e-106</v>
+        <v>6.421513039871656e-97</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>1.112905468434017e-106</v>
+        <v>4.963983740409123e-97</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>6.164342063854263e-107</v>
+        <v>5.898595906664028e-97</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>5.218374583255856e-107</v>
+        <v>5.644304194542607e-97</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>4.515064564433432e-107</v>
+        <v>1.161644251128931e-96</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>3.463140088008496e-107</v>
+        <v>1.396876505678026e-96</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>2.147009789516642e-107</v>
+        <v>8.708536719295819e-97</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>9.261199843027256e-108</v>
+        <v>4.420772779376017e-97</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>5.549694966555115e-108</v>
+        <v>1.435822652538056e-97</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>2.828424632833316e-108</v>
+        <v>9.772106402886493e-98</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>2.635664130379634e-108</v>
+        <v>1.108888869144132e-97</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>2.098841928181004e-108</v>
+        <v>4.321000820190748e-98</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>1.718266342563512e-108</v>
+        <v>2.657468387002889e-98</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.575216783269845e-108</v>
+        <v>1.150637457010991e-98</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>1.39455887319286e-108</v>
+        <v>3.36537661396182e-99</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>1.242935771371371e-108</v>
+        <v>2.30765640609497e-99</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>9.387931577050565e-109</v>
+        <v>1.986486029067072e-99</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>7.97216401698087e-109</v>
+        <v>1.762514572118862e-99</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>6.488620822986417e-109</v>
+        <v>1.709411296702964e-99</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>5.149507064783394e-109</v>
+        <v>1.303370591145706e-99</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>4.433977226623155e-109</v>
+        <v>1.916352401789398e-99</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>3.735923243053834e-109</v>
+        <v>2.241424920034111e-99</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>3.363532839129173e-109</v>
+        <v>3.093810675864039e-99</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>2.786141021427013e-109</v>
+        <v>4.29176870944861e-99</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>2.478918160574101e-109</v>
+        <v>2.385519500399361e-99</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>1.238348597339226e-109</v>
+        <v>7.333681001617348e-100</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>8.810290513805517e-110</v>
+        <v>2.156430323906805e-100</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>5.899582274130429e-110</v>
+        <v>5.987551389305141e-101</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>2.801493042044017e-110</v>
+        <v>3.548619857586998e-101</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.96429921539223e-110</v>
+        <v>1.406021608976861e-101</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>1.328392518508911e-110</v>
+        <v>6.987276944630548e-102</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>1.095881576923384e-110</v>
+        <v>3.314525308471652e-102</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09214368637296e-110</v>
+        <v>2.861688232481217e-102</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>9.809758563138226e-111</v>
+        <v>3.443488860655877e-102</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>7.444381251298114e-111</v>
+        <v>7.252257870024537e-103</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>6.454799623403969e-111</v>
+        <v>1.814644494159571e-103</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>5.833801812433047e-111</v>
+        <v>8.925849293752017e-104</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>5.710354580719365e-111</v>
+        <v>2.564342487140685e-104</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>5.335443069561461e-111</v>
+        <v>1.027657814173384e-104</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>4.88241545168177e-111</v>
+        <v>5.894135273624686e-105</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>4.188744949090627e-111</v>
+        <v>1.011234042247849e-104</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>3.57474674688566e-111</v>
+        <v>9.17224230902962e-105</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>2.628867083757061e-111</v>
+        <v>5.642875882074953e-105</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.772680205487921e-111</v>
+        <v>4.371683679628436e-105</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>6.753504588622684e-112</v>
+        <v>2.886879355619751e-105</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>4.441505073684584e-112</v>
+        <v>1.432738314528353e-105</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>2.830746086522073e-112</v>
+        <v>6.10444712016145e-106</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>1.352551285943716e-112</v>
+        <v>3.116988507297743e-106</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>9.549596270450102e-113</v>
+        <v>2.59368892453451e-106</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.811775151061696e-113</v>
+        <v>2.165584251610238e-106</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>6.860489132495429e-113</v>
+        <v>1.612057286384229e-106</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>5.877349623005349e-113</v>
+        <v>9.179892993311184e-107</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>5.535417085799115e-113</v>
+        <v>3.352713815335714e-107</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>5.442743012759732e-113</v>
+        <v>1.758032103628811e-107</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>5.348522297273132e-113</v>
+        <v>7.356208829067271e-108</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>4.732569283277773e-113</v>
+        <v>6.302959285285796e-108</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>4.213194093020652e-113</v>
+        <v>4.616478276821665e-108</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>3.813953713338912e-113</v>
+        <v>3.47948453182662e-108</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>3.119058194250129e-113</v>
+        <v>3.032259514463165e-108</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>2.981102461376184e-113</v>
+        <v>2.594980581973094e-108</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>2.895668970449339e-113</v>
+        <v>2.190258407335024e-108</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>2.477575435828724e-113</v>
+        <v>1.523773109582119e-108</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>1.710981319813316e-113</v>
+        <v>1.256345446205298e-108</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>1.162648937323089e-113</v>
+        <v>9.68099886005512e-109</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>8.738690954321448e-114</v>
+        <v>7.367769999711508e-109</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>7.944630344644149e-114</v>
+        <v>6.196129708648825e-109</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>8.13004585452191e-114</v>
+        <v>5.086935038814452e-109</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.097386408478384e-113</v>
+        <v>4.491079653194715e-109</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.176118021606319e-113</v>
+        <v>3.640405783713607e-109</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>1.073480741887095e-113</v>
+        <v>3.191391412091878e-109</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>9.344177798215822e-114</v>
+        <v>1.466254732664864e-109</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>8.613291117455073e-114</v>
+        <v>9.969883013728673e-110</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>8.26758364781544e-114</v>
+        <v>6.43812812233126e-110</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>5.92450457125771e-114</v>
+        <v>2.81053827664802e-110</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>4.844559527221991e-114</v>
+        <v>1.884937090678263e-110</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>1.793891265044929e-114</v>
+        <v>1.226241772189632e-110</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>4.390403294288885e-115</v>
+        <v>9.867727608313984e-111</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>1.472786241014284e-115</v>
+        <v>9.829002754675115e-111</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>6.330034366831135e-116</v>
+        <v>8.698645934211642e-111</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>5.564165620121428e-116</v>
+        <v>6.320449894392623e-111</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>5.211215788565829e-116</v>
+        <v>5.354419444978492e-111</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>5.581454172348345e-116</v>
+        <v>4.735555768155853e-111</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>4.576538061300444e-116</v>
+        <v>4.537881916677502e-111</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>3.704384667423573e-116</v>
+        <v>4.128358271300575e-111</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>2.793507798658439e-116</v>
+        <v>3.691191307425133e-111</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>1.97255146282429e-116</v>
+        <v>3.087115155896693e-111</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>1.94761463119126e-116</v>
+        <v>2.568586044503797e-111</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>1.37733019587243e-116</v>
+        <v>1.81006707657997e-111</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>9.100301156113649e-117</v>
+        <v>1.173430509064195e-111</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>6.442734338989896e-117</v>
+        <v>4.109722294178621e-112</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>5.524212077047844e-117</v>
+        <v>2.585286115059903e-112</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>4.333202760288029e-117</v>
+        <v>1.593518997513466e-112</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>3.875472693256244e-117</v>
+        <v>7.027044250121768e-113</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>3.189311896786916e-117</v>
+        <v>4.712349956989332e-113</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>2.685274189588515e-117</v>
+        <v>3.723874463550082e-113</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.463286827235612e-117</v>
+        <v>3.202513020449113e-113</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>2.224272264847239e-117</v>
+        <v>2.69807149880404e-113</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>1.942546980025786e-117</v>
+        <v>2.530962379100417e-113</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>1.771941763516261e-117</v>
+        <v>2.471078944229087e-113</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>1.549310578076013e-117</v>
+        <v>2.420563161994784e-113</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>1.47515277206537e-117</v>
+        <v>2.100425814422793e-113</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>1.189357042524736e-117</v>
+        <v>1.832673438242958e-113</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>8.24632140434735e-118</v>
+        <v>1.631614050405593e-113</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>8.025574319260706e-118</v>
+        <v>1.325023498669431e-113</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>5.845745453847215e-118</v>
+        <v>1.246668541983688e-113</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>5.252340519598534e-118</v>
+        <v>1.207923437676494e-113</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>5.038494144621149e-118</v>
+        <v>1.004637461761196e-113</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>5.410949093240409e-118</v>
+        <v>6.663053911575324e-114</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>4.383313027117988e-118</v>
+        <v>4.36929667756686e-114</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>3.755241719509807e-118</v>
+        <v>3.13281430009718e-114</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>3.096885779699326e-118</v>
+        <v>2.815512332771887e-114</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>2.625637928894813e-118</v>
+        <v>2.786735006198308e-114</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>2.263035520761606e-118</v>
+        <v>3.637448604218848e-114</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>1.911343502634988e-118</v>
+        <v>3.777226147305042e-114</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.602399602763932e-118</v>
+        <v>3.366720147841071e-114</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>1.499825198309854e-118</v>
+        <v>2.847320397845997e-114</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>5.986311581908773e-119</v>
+        <v>2.583645450412736e-114</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.909114018981204e-119</v>
+        <v>2.462834967552525e-114</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.029524772746148e-119</v>
+        <v>1.676432323129881e-114</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>1.423230140111002e-119</v>
+        <v>1.348107421981179e-114</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>8.62755967432433e-120</v>
+        <v>4.562515694374439e-115</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>6.324876405415046e-120</v>
+        <v>9.465477884764053e-116</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>4.4667841403933e-120</v>
+        <v>2.691122589199187e-116</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>3.93457841392498e-120</v>
+        <v>9.799885859050759e-117</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>3.312292704616307e-120</v>
+        <v>7.973053718750707e-117</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>3.662342272093614e-120</v>
+        <v>7.211739214924866e-117</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>2.464329819205414e-120</v>
+        <v>7.281539010611711e-117</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.252975346898592e-120</v>
+        <v>5.551694203750902e-117</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>9.245627017773034e-121</v>
+        <v>4.27942562440494e-117</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.098814038216657e-117</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.095874445867809e-117</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.072918018332156e-117</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.409025401566032e-117</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>8.911235076259553e-118</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.065473178108827e-118</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.106886296367097e-118</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.833452688257133e-118</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.368277887246684e-118</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.718002536145811e-118</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.175079102843167e-118</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.921136133941098e-118</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.665242209535072e-118</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.388332520451359e-118</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.217166747064384e-118</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.021126093683342e-118</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9.71582968718994e-119</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>7.522983927174682e-119</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5.008245432526724e-119</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.864520982116329e-119</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.431836259362107e-119</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.049178847363753e-119</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.91773552057372e-119</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.04010840484367e-119</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.430136307327559e-119</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.00381783279199e-119</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.631344734308127e-119</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.35992011348496e-119</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.152751562275202e-119</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>9.540858358245806e-120</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>7.879979580083113e-120</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>7.296095828775098e-120</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.79237708872898e-120</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8.49015913882673e-121</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.470520045515119e-121</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.166492847512679e-121</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.721373517520575e-121</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.676754057326672e-121</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.817339738211114e-121</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.539434736562218e-121</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.217454164482711e-121</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.227562997980665e-121</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>7.585183809965232e-122</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.52205855663355e-122</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.513471276468696e-122</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.60807194962374e-87</v>
+        <v>1.335151187413973e-98</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>2.099180003038795e-87</v>
+        <v>6.387835159561774e-99</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>2.633173321905345e-87</v>
+        <v>3.570089583964672e-99</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>2.096918348978631e-87</v>
+        <v>3.168672573634936e-99</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2.289913509915462e-87</v>
+        <v>2.652347841329502e-99</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>2.072395427198376e-87</v>
+        <v>3.350295239350736e-99</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.508027809460004e-87</v>
+        <v>3.485824487960768e-99</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.309794413361054e-87</v>
+        <v>7.311335322569824e-99</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>8.876989501094635e-88</v>
+        <v>9.164656290946939e-99</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>8.417256847491592e-88</v>
+        <v>6.223529248188919e-99</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>7.100637601184094e-88</v>
+        <v>3.366997580636011e-99</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>3.409944220379756e-88</v>
+        <v>1.168222847560134e-99</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>8.367020995970538e-94</v>
+        <v>8.135737765068057e-100</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.068964624847598e-94</v>
+        <v>9.372292383981151e-100</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.100776144818308e-94</v>
+        <v>3.781402565412856e-100</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.582425686578785e-94</v>
+        <v>2.338495008770355e-100</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.547327503470972e-94</v>
+        <v>1.070081681070093e-100</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.857412059420567e-94</v>
+        <v>3.529369816760987e-101</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.449634161645218e-94</v>
+        <v>2.447599473242453e-101</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.627563162549197e-94</v>
+        <v>2.117058448544673e-101</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.790022535585457e-94</v>
+        <v>2.037938225960794e-101</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>3.074103961656252e-94</v>
+        <v>1.992876138317068e-101</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>3.842674239850726e-94</v>
+        <v>1.563423251206577e-101</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>3.630132903778285e-94</v>
+        <v>2.439204703905866e-101</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>3.033523210125393e-94</v>
+        <v>2.959710632051926e-101</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>2.979113679733541e-94</v>
+        <v>4.292883261182183e-101</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>2.595385783785547e-94</v>
+        <v>6.538543641007594e-101</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>2.476465315028988e-94</v>
+        <v>3.972450204184636e-101</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>2.271470467839616e-94</v>
+        <v>1.302111457300357e-101</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>2.066446727625575e-94</v>
+        <v>4.204698517997384e-102</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1.72745175414472e-94</v>
+        <v>1.284198672728592e-102</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1.448735503411945e-94</v>
+        <v>8.132163941241291e-103</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1.465864360878963e-94</v>
+        <v>3.386125234315034e-103</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.164990707762253e-94</v>
+        <v>1.959625477795567e-103</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.005419742326162e-94</v>
+        <v>9.093976253752664e-104</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>5.974592545053678e-95</v>
+        <v>8.657169390213949e-104</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>5.327151487422477e-95</v>
+        <v>1.127218950692295e-103</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>4.500349391254824e-95</v>
+        <v>2.80306267788702e-104</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>4.537662265956327e-95</v>
+        <v>7.659255538589184e-105</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>6.372400320087003e-95</v>
+        <v>4.259617989896129e-105</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>5.839113946914043e-95</v>
+        <v>1.419540601711873e-105</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>4.814420564363848e-95</v>
+        <v>6.478385372204551e-106</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>3.295082741967581e-95</v>
+        <v>4.484968866820526e-106</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>2.61648075027374e-95</v>
+        <v>7.847354057142122e-106</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1.90396904088814e-95</v>
+        <v>7.356114231935613e-106</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>3.978677530510136e-96</v>
+        <v>4.974843034562952e-106</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.670810993925647e-96</v>
+        <v>3.985864745176274e-106</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>7.943692869884578e-97</v>
+        <v>2.723639155649688e-106</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>6.421513039871656e-97</v>
+        <v>1.492975984220412e-106</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>4.963983740409123e-97</v>
+        <v>6.955296977966753e-107</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>5.898595906664028e-97</v>
+        <v>3.911126713537404e-107</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>5.644304194542607e-97</v>
+        <v>3.266916476826393e-107</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.161644251128931e-96</v>
+        <v>2.798844323915491e-107</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1.396876505678026e-96</v>
+        <v>2.160064390849284e-107</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>8.708536719295819e-97</v>
+        <v>1.332921582013128e-107</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>4.420772779376017e-97</v>
+        <v>5.760105932721505e-108</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>1.435822652538056e-97</v>
+        <v>3.454900635925891e-108</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>9.772106402886493e-98</v>
+        <v>1.746811135544113e-108</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.108888869144132e-97</v>
+        <v>1.602468249922127e-108</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>4.321000820190748e-98</v>
+        <v>1.282647409397146e-108</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>2.657468387002889e-98</v>
+        <v>1.042172564504579e-108</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.150637457010991e-98</v>
+        <v>9.539906646432146e-109</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>3.36537661396182e-99</v>
+        <v>8.447774962823564e-109</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>2.30765640609497e-99</v>
+        <v>7.555946484133262e-109</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.986486029067072e-99</v>
+        <v>5.693879422515871e-109</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.762514572118862e-99</v>
+        <v>4.824952184877219e-109</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.709411296702964e-99</v>
+        <v>3.91339326081691e-109</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.303370591145706e-99</v>
+        <v>3.110486438224155e-109</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.916352401789398e-99</v>
+        <v>2.691518235818657e-109</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>2.241424920034111e-99</v>
+        <v>2.258656988139809e-109</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>3.093810675864039e-99</v>
+        <v>2.034223153929896e-109</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>4.29176870944861e-99</v>
+        <v>1.682535932837131e-109</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>2.385519500399361e-99</v>
+        <v>1.502682111599889e-109</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>7.333681001617348e-100</v>
+        <v>7.504715819629344e-110</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>2.156430323906805e-100</v>
+        <v>5.334072516564773e-110</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>5.987551389305141e-101</v>
+        <v>3.574402902580394e-110</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>3.548619857586998e-101</v>
+        <v>1.700968969969177e-110</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.406021608976861e-101</v>
+        <v>1.192228692255265e-110</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>6.987276944630548e-102</v>
+        <v>8.108237968760342e-111</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>3.314525308471652e-102</v>
+        <v>6.679891314920958e-111</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>2.861688232481217e-102</v>
+        <v>6.647041893140085e-111</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>3.443488860655877e-102</v>
+        <v>5.996339798025484e-111</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>7.252257870024537e-103</v>
+        <v>4.530224823759464e-111</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.814644494159571e-103</v>
+        <v>3.944097433620269e-111</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>8.925849293752017e-104</v>
+        <v>3.56298733126977e-111</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>2.564342487140685e-104</v>
+        <v>3.458194214910391e-111</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.027657814173384e-104</v>
+        <v>3.243634270040515e-111</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>5.894135273624686e-105</v>
+        <v>2.966875956130096e-111</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.011234042247849e-104</v>
+        <v>2.551678349704638e-111</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>9.17224230902962e-105</v>
+        <v>2.166271954470825e-111</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>5.642875882074953e-105</v>
+        <v>1.591900036539022e-111</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>4.371683679628436e-105</v>
+        <v>1.081590497350589e-111</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>2.886879355619751e-105</v>
+        <v>4.118661871009296e-112</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.432738314528353e-105</v>
+        <v>2.709273531242916e-112</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>6.10444712016145e-106</v>
+        <v>1.745934729009936e-112</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>3.116988507297743e-106</v>
+        <v>8.368225006421503e-113</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>2.59368892453451e-106</v>
+        <v>5.927711449477243e-113</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.165584251610238e-106</v>
+        <v>4.847315777036844e-113</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.612057286384229e-106</v>
+        <v>4.25711053765111e-113</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>9.179892993311184e-107</v>
+        <v>3.646680692048658e-113</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>3.352713815335714e-107</v>
+        <v>3.449913121295127e-113</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.758032103628811e-107</v>
+        <v>3.408643737158815e-113</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>7.356208829067271e-108</v>
+        <v>3.316776971065814e-113</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>6.302959285285796e-108</v>
+        <v>2.916385255185107e-113</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>4.616478276821665e-108</v>
+        <v>2.574269225340903e-113</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>3.47948453182662e-108</v>
+        <v>2.301695361533955e-113</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>3.032259514463165e-108</v>
+        <v>1.9664058711871e-113</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>2.594980581973094e-108</v>
+        <v>1.865925560005623e-113</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>2.190258407335024e-108</v>
+        <v>1.826097189919685e-113</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.523773109582119e-108</v>
+        <v>1.557018042004589e-113</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.256345446205298e-108</v>
+        <v>1.073262435821232e-113</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>9.68099886005512e-109</v>
+        <v>7.383007442499356e-114</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>7.367769999711508e-109</v>
+        <v>5.514968913815968e-114</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>6.196129708648825e-109</v>
+        <v>4.999344811179548e-114</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>5.086935038814452e-109</v>
+        <v>5.156576899115279e-114</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>4.491079653194715e-109</v>
+        <v>6.866893764606101e-114</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>3.640405783713607e-109</v>
+        <v>7.225092829956406e-114</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>3.191391412091878e-109</v>
+        <v>6.645970775350374e-114</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>1.466254732664864e-109</v>
+        <v>5.735601451277643e-114</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>9.969883013728673e-110</v>
+        <v>5.343682731875083e-114</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>6.43812812233126e-110</v>
+        <v>5.105513546367963e-114</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2.81053827664802e-110</v>
+        <v>3.652813024810582e-114</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.884937090678263e-110</v>
+        <v>2.997232210500369e-114</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.226241772189632e-110</v>
+        <v>1.116986853166024e-114</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>9.867727608313984e-111</v>
+        <v>2.748370016471266e-115</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>9.829002754675115e-111</v>
+        <v>9.34232309328449e-116</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>8.698645934211642e-111</v>
+        <v>3.952232837655955e-116</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>6.320449894392623e-111</v>
+        <v>3.486380007522738e-116</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>5.354419444978492e-111</v>
+        <v>3.238784535032317e-116</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>4.735555768155853e-111</v>
+        <v>3.444771096279839e-116</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>4.537881916677502e-111</v>
+        <v>2.819939422478528e-116</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>4.128358271300575e-111</v>
+        <v>2.297225926030232e-116</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>3.691191307425133e-111</v>
+        <v>1.716600687714781e-116</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>3.087115155896693e-111</v>
+        <v>1.200369303463962e-116</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>2.568586044503797e-111</v>
+        <v>8.428677122520366e-117</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.81006707657997e-111</v>
+        <v>5.559282704249892e-117</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1.173430509064195e-111</v>
+        <v>3.988429659767006e-117</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>4.109722294178621e-112</v>
+        <v>3.48403199926859e-117</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>2.585286115059903e-112</v>
+        <v>2.644543388218946e-117</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1.593518997513466e-112</v>
+        <v>2.390396292035381e-117</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>7.027044250121768e-113</v>
+        <v>2.021665990804525e-117</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>4.712349956989332e-113</v>
+        <v>1.675712366830172e-117</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>3.723874463550082e-113</v>
+        <v>1.529599598586703e-117</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>3.202513020449113e-113</v>
+        <v>1.372762850632848e-117</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>2.69807149880404e-113</v>
+        <v>1.195521107785074e-117</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>2.530962379100417e-113</v>
+        <v>1.083453244874046e-117</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>2.471078944229087e-113</v>
+        <v>9.255693810925893e-118</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>2.420563161994784e-113</v>
+        <v>7.221651848827671e-118</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>2.100425814422793e-113</v>
+        <v>5.05954629342822e-118</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.832673438242958e-113</v>
+        <v>4.925936100032086e-118</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.631614050405593e-113</v>
+        <v>3.601006061433455e-118</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.325023498669431e-113</v>
+        <v>3.225148537350985e-118</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.246668541983688e-113</v>
+        <v>3.10108717059526e-118</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.207923437676494e-113</v>
+        <v>3.298683898845872e-118</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.004637461761196e-113</v>
+        <v>2.692371758433018e-118</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>6.663053911575324e-114</v>
+        <v>2.297703145919965e-118</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>4.36929667756686e-114</v>
+        <v>1.905154799186764e-118</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>3.13281430009718e-114</v>
+        <v>1.613981347340682e-118</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>2.815512332771887e-114</v>
+        <v>1.392693169316256e-118</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>2.786735006198308e-114</v>
+        <v>1.165140869395499e-118</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>3.637448604218848e-114</v>
+        <v>9.88792267992319e-119</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>3.777226147305042e-114</v>
+        <v>9.297575357797066e-119</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>3.366720147841071e-114</v>
+        <v>3.765390467771816e-119</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>2.847320397845997e-114</v>
+        <v>1.207302338143496e-119</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>2.583645450412736e-114</v>
+        <v>6.366759076246622e-120</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>2.462834967552525e-114</v>
+        <v>8.992515958156312e-120</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.676432323129881e-114</v>
+        <v>5.441979168373109e-120</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.348107421981179e-114</v>
+        <v>3.940162017690748e-120</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>4.562515694374439e-115</v>
+        <v>2.744280695261183e-120</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>9.465477884764053e-116</v>
+        <v>2.37402818327147e-120</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.691122589199187e-116</v>
+        <v>2.112888655975138e-120</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>9.799885859050759e-117</v>
+        <v>2.304359542655447e-120</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>7.973053718750707e-117</v>
+        <v>1.552113291684183e-120</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>7.211739214924866e-117</v>
+        <v>7.877696645855969e-121</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>7.281539010611711e-117</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5.551694203750902e-117</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>4.27942562440494e-117</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>3.098814038216657e-117</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.095874445867809e-117</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2.072918018332156e-117</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.409025401566032e-117</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>8.911235076259553e-118</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.065473178108827e-118</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.106886296367097e-118</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>3.833452688257133e-118</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.368277887246684e-118</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.718002536145811e-118</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.175079102843167e-118</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.921136133941098e-118</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.665242209535072e-118</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.388332520451359e-118</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.217166747064384e-118</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.021126093683342e-118</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>9.71582968718994e-119</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>7.522983927174682e-119</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>5.008245432526724e-119</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.864520982116329e-119</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.431836259362107e-119</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.049178847363753e-119</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.91773552057372e-119</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.04010840484367e-119</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.430136307327559e-119</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.00381783279199e-119</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.631344734308127e-119</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.35992011348496e-119</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.152751562275202e-119</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>9.540858358245806e-120</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>7.879979580083113e-120</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>7.296095828775098e-120</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2.79237708872898e-120</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>8.49015913882673e-121</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4.470520045515119e-121</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>6.166492847512679e-121</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.721373517520575e-121</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.676754057326672e-121</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.817339738211114e-121</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.539434736562218e-121</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.217454164482711e-121</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.227562997980665e-121</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>7.585183809965232e-122</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.52205855663355e-122</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.513471276468696e-122</v>
+        <v>5.798414518021368e-121</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.200000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.335151187413973e-98</v>
+        <v>6.986507309930456e-99</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>6.387835159561774e-99</v>
+        <v>3.962523953067061e-99</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>3.570089583964672e-99</v>
+        <v>2.547505748853558e-99</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>3.168672573634936e-99</v>
+        <v>2.617518230634231e-99</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2.652347841329502e-99</v>
+        <v>2.382589337682557e-99</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>3.350295239350736e-99</v>
+        <v>3.072749723040903e-99</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>3.485824487960768e-99</v>
+        <v>3.382674206021812e-99</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>7.311335322569824e-99</v>
+        <v>7.138242641211249e-99</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>9.164656290946939e-99</v>
+        <v>8.972754146895761e-99</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>6.223529248188919e-99</v>
+        <v>6.177171202485537e-99</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>3.366997580636011e-99</v>
+        <v>3.322983879939923e-99</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>1.168222847560134e-99</v>
+        <v>1.156897322772195e-99</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>8.135737765068057e-100</v>
+        <v>7.896167509718351e-100</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>9.372292383981151e-100</v>
+        <v>9.254375146490454e-100</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>3.781402565412856e-100</v>
+        <v>3.609327972678614e-100</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>2.338495008770355e-100</v>
+        <v>2.234641386514664e-100</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.070081681070093e-100</v>
+        <v>9.25693633531377e-101</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>3.529369816760987e-101</v>
+        <v>2.854270704183344e-101</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>2.447599473242453e-101</v>
+        <v>1.966170236346741e-101</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>2.117058448544673e-101</v>
+        <v>1.608153056117082e-101</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.037938225960794e-101</v>
+        <v>1.732271184988864e-101</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1.992876138317068e-101</v>
+        <v>1.890521475632108e-101</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.563423251206577e-101</v>
+        <v>1.316347865094243e-101</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>2.439204703905866e-101</v>
+        <v>2.115746468223188e-101</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>2.959710632051926e-101</v>
+        <v>2.621577621453333e-101</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>4.292883261182183e-101</v>
+        <v>4.25299310959045e-101</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>6.538543641007594e-101</v>
+        <v>6.499485189941536e-101</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3.972450204184636e-101</v>
+        <v>3.921688173056032e-101</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1.302111457300357e-101</v>
+        <v>1.294212669858567e-101</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>4.204698517997384e-102</v>
+        <v>4.057020342224991e-102</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1.284198672728592e-102</v>
+        <v>1.228999129987403e-102</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>8.132163941241291e-103</v>
+        <v>7.738353575117649e-103</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.386125234315034e-103</v>
+        <v>3.481205402760372e-103</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.959625477795567e-103</v>
+        <v>1.503460821422394e-103</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>9.093976253752664e-104</v>
+        <v>8.922961010785056e-104</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>8.657169390213949e-104</v>
+        <v>8.378011813254633e-104</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.127218950692295e-103</v>
+        <v>1.10844576379672e-103</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>2.80306267788702e-104</v>
+        <v>2.754947231314496e-104</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>7.659255538589184e-105</v>
+        <v>7.022141639045612e-105</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>4.259617989896129e-105</v>
+        <v>3.734147713088805e-105</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.419540601711873e-105</v>
+        <v>1.319636586228437e-105</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>6.478385372204551e-106</v>
+        <v>5.922498764272416e-106</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>4.484968866820526e-106</v>
+        <v>4.399507642760759e-106</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>7.847354057142122e-106</v>
+        <v>7.736730124488749e-106</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>7.356114231935613e-106</v>
+        <v>7.253383594403191e-106</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>4.974843034562952e-106</v>
+        <v>4.974279799529992e-106</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>3.985864745176274e-106</v>
+        <v>3.968983225651487e-106</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>2.723639155649688e-106</v>
+        <v>2.686838614685779e-106</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1.492975984220412e-106</v>
+        <v>1.469297827225905e-106</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>6.955296977966753e-107</v>
+        <v>6.99246014282217e-107</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>3.911126713537404e-107</v>
+        <v>3.874893036856353e-107</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>3.266916476826393e-107</v>
+        <v>3.303175274799627e-107</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>2.798844323915491e-107</v>
+        <v>2.753814907817348e-107</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>2.160064390849284e-107</v>
+        <v>2.071368112065176e-107</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1.332921582013128e-107</v>
+        <v>1.282814271302454e-107</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.760105932721505e-108</v>
+        <v>5.676570496509865e-108</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>3.454900635925891e-108</v>
+        <v>3.4063936030194e-108</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>1.746811135544113e-108</v>
+        <v>1.747335614440804e-108</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.602468249922127e-108</v>
+        <v>1.610814682478632e-108</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.282647409397146e-108</v>
+        <v>1.287960388211824e-108</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.042172564504579e-108</v>
+        <v>1.044848776707459e-108</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>9.539906646432146e-109</v>
+        <v>9.584001806858704e-109</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>8.447774962823564e-109</v>
+        <v>8.462115307068164e-109</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>7.555946484133262e-109</v>
+        <v>7.563290250351807e-109</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>5.693879422515871e-109</v>
+        <v>5.724056321536662e-109</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>4.824952184877219e-109</v>
+        <v>4.839895990846575e-109</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>3.91339326081691e-109</v>
+        <v>3.957139136353633e-109</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>3.110486438224155e-109</v>
+        <v>3.118227859261836e-109</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>2.691518235818657e-109</v>
+        <v>2.709913028084057e-109</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>2.258656988139809e-109</v>
+        <v>2.269084067032632e-109</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>2.034223153929896e-109</v>
+        <v>2.037899142685764e-109</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.682535932837131e-109</v>
+        <v>1.699292362637419e-109</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.502682111599889e-109</v>
+        <v>1.50842479342132e-109</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>7.504715819629344e-110</v>
+        <v>7.568647024636417e-110</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5.334072516564773e-110</v>
+        <v>5.335803209806947e-110</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>3.574402902580394e-110</v>
+        <v>3.586065717188759e-110</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1.700968969969177e-110</v>
+        <v>1.711503619662263e-110</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.192228692255265e-110</v>
+        <v>1.198245275551079e-110</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>8.108237968760342e-111</v>
+        <v>8.126473284609325e-111</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>6.679891314920958e-111</v>
+        <v>6.709176195258592e-111</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>6.647041893140085e-111</v>
+        <v>6.663847482258393e-111</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>5.996339798025484e-111</v>
+        <v>6.015817894166122e-111</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>4.530224823759464e-111</v>
+        <v>4.54024715838331e-111</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>3.944097433620269e-111</v>
+        <v>3.949484430745167e-111</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>3.56298733126977e-111</v>
+        <v>3.565583226849696e-111</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>3.458194214910391e-111</v>
+        <v>3.471783776676516e-111</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>3.243634270040515e-111</v>
+        <v>3.243954662677684e-111</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>2.966875956130096e-111</v>
+        <v>2.965227805580206e-111</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>2.551678349704638e-111</v>
+        <v>2.552686376024716e-111</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>2.166271954470825e-111</v>
+        <v>2.173068044649584e-111</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.591900036539022e-111</v>
+        <v>1.590808441335993e-111</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>1.081590497350589e-111</v>
+        <v>1.08719664130025e-111</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>4.118661871009296e-112</v>
+        <v>4.144741067441693e-112</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>2.709273531242916e-112</v>
+        <v>2.737736942115394e-112</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.745934729009936e-112</v>
+        <v>1.754994299895493e-112</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>8.368225006421503e-113</v>
+        <v>8.41636855360603e-113</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>5.927711449477243e-113</v>
+        <v>5.936885932491829e-113</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>4.847315777036844e-113</v>
+        <v>4.848944926714728e-113</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>4.25711053765111e-113</v>
+        <v>4.232333022106589e-113</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>3.646680692048658e-113</v>
+        <v>3.622311262221322e-113</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>3.449913121295127e-113</v>
+        <v>3.452405655560773e-113</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>3.408643737158815e-113</v>
+        <v>3.383992943233595e-113</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>3.316776971065814e-113</v>
+        <v>3.3213362608988e-113</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>2.916385255185107e-113</v>
+        <v>2.943167439668679e-113</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>2.574269225340903e-113</v>
+        <v>2.562762183167383e-113</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>2.301695361533955e-113</v>
+        <v>2.297578162880553e-113</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.9664058711871e-113</v>
+        <v>1.956132990207383e-113</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.865925560005623e-113</v>
+        <v>1.849697463001254e-113</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.826097189919685e-113</v>
+        <v>1.823731044797611e-113</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.557018042004589e-113</v>
+        <v>1.533990761190335e-113</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.073262435821232e-113</v>
+        <v>1.063844943071947e-113</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>7.383007442499356e-114</v>
+        <v>7.414968787401076e-114</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>5.514968913815968e-114</v>
+        <v>5.515274061419735e-114</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>4.999344811179548e-114</v>
+        <v>5.066536430566542e-114</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>5.156576899115279e-114</v>
+        <v>5.137801104326204e-114</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>6.866893764606101e-114</v>
+        <v>6.835504368653841e-114</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>7.225092829956406e-114</v>
+        <v>7.231439718861319e-114</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>6.645970775350374e-114</v>
+        <v>6.628029198167471e-114</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>5.735601451277643e-114</v>
+        <v>5.728124809919687e-114</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>5.343682731875083e-114</v>
+        <v>5.338964812317918e-114</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>5.105513546367963e-114</v>
+        <v>5.124598123160325e-114</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>3.652813024810582e-114</v>
+        <v>3.673171479579567e-114</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.997232210500369e-114</v>
+        <v>3.016779213120844e-114</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.116986853166024e-114</v>
+        <v>1.119109473511342e-114</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>2.748370016471266e-115</v>
+        <v>2.771500861149469e-115</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>9.34232309328449e-116</v>
+        <v>9.347092733413864e-116</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>3.952232837655955e-116</v>
+        <v>3.984578635443216e-116</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>3.486380007522738e-116</v>
+        <v>3.487135200499867e-116</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>3.238784535032317e-116</v>
+        <v>3.231745155087676e-116</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>3.444771096279839e-116</v>
+        <v>3.42767964101252e-116</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>2.819939422478528e-116</v>
+        <v>2.866335245109943e-116</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2.297225926030232e-116</v>
+        <v>2.300616695092169e-116</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.716600687714781e-116</v>
+        <v>1.718677382516314e-116</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.200369303463962e-116</v>
+        <v>1.198947085882379e-116</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>8.428677122520366e-117</v>
+        <v>8.394773870639597e-117</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>5.559282704249892e-117</v>
+        <v>5.639981402985315e-117</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>3.988429659767006e-117</v>
+        <v>3.954792461082608e-117</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>3.48403199926859e-117</v>
+        <v>3.415356722022014e-117</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>2.644543388218946e-117</v>
+        <v>2.431359492076609e-117</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>2.390396292035381e-117</v>
+        <v>2.374931978761544e-117</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>2.021665990804525e-117</v>
+        <v>2.027979403146316e-117</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1.675712366830172e-117</v>
+        <v>1.615497283315636e-117</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.529599598586703e-117</v>
+        <v>1.514634967941902e-117</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.372762850632848e-117</v>
+        <v>1.366479585545868e-117</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.195521107785074e-117</v>
+        <v>1.190379366300618e-117</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.083453244874046e-117</v>
+        <v>1.08105037375858e-117</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>9.255693810925893e-118</v>
+        <v>9.271422515272032e-118</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>7.221651848827671e-118</v>
+        <v>7.202084901220832e-118</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>5.05954629342822e-118</v>
+        <v>5.075577401622488e-118</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>4.925936100032086e-118</v>
+        <v>4.946568431741292e-118</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>3.601006061433455e-118</v>
+        <v>3.625950476085916e-118</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>3.225148537350985e-118</v>
+        <v>3.233587867359438e-118</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>3.10108717059526e-118</v>
+        <v>3.113423837469244e-118</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>3.298683898845872e-118</v>
+        <v>3.316659031924321e-118</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>2.692371758433018e-118</v>
+        <v>2.69863618816597e-118</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>2.297703145919965e-118</v>
+        <v>2.309930661206437e-118</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.905154799186764e-118</v>
+        <v>1.913050788574544e-118</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.613981347340682e-118</v>
+        <v>1.621057259096533e-118</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.392693169316256e-118</v>
+        <v>1.393733265715511e-118</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.165140869395499e-118</v>
+        <v>1.173339177961032e-118</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>9.88792267992319e-119</v>
+        <v>9.93248573277635e-119</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>9.297575357797066e-119</v>
+        <v>9.356090991087906e-119</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>3.765390467771816e-119</v>
+        <v>3.786909307671032e-119</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.207302338143496e-119</v>
+        <v>1.24317903485492e-119</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>6.366759076246622e-120</v>
+        <v>6.504486568306949e-120</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>8.992515958156312e-120</v>
+        <v>9.146553483998286e-120</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>5.441979168373109e-120</v>
+        <v>5.616533491693279e-120</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>3.940162017690748e-120</v>
+        <v>4.092653568297579e-120</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2.744280695261183e-120</v>
+        <v>2.841062973887427e-120</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.37402818327147e-120</v>
+        <v>2.172931180217938e-120</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.112888655975138e-120</v>
+        <v>2.129306115168148e-120</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>2.304359542655447e-120</v>
+        <v>2.289109731292053e-120</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.552113291684183e-120</v>
+        <v>1.567491627808215e-120</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>7.877696645855969e-121</v>
+        <v>8.00900121651386e-121</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>5.798414518021368e-121</v>
+        <v>5.91629122936035e-121</v>
       </c>
     </row>
   </sheetData>
